--- a/September'21/11.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/11.09.2021/Daily Sales Info Sep'21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -293,6 +293,30 @@
           </rPr>
           <t xml:space="preserve">
 Shawon BP sele Sim 14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9 tarikh porjonto paid</t>
         </r>
       </text>
     </comment>
@@ -15111,8 +15135,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15209,11 +15233,11 @@
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>2830</v>
+        <v>2730</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>7850</v>
+        <v>7700</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
@@ -15225,7 +15249,7 @@
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
@@ -15233,7 +15257,7 @@
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -16461,11 +16485,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2810</v>
+        <v>2710</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7850</v>
+        <v>7700</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -16477,7 +16501,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1521</v>
+        <v>1491</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -16485,7 +16509,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -16734,9 +16758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16833,11 +16857,11 @@
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>2810</v>
+        <v>2710</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>7850</v>
+        <v>7700</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
@@ -16849,7 +16873,7 @@
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>1521</v>
+        <v>1491</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
@@ -16857,7 +16881,7 @@
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -18171,11 +18195,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7450</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -18187,7 +18211,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1397</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -18195,7 +18219,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -18460,8 +18484,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18558,11 +18582,11 @@
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>7600</v>
+        <v>7450</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
@@ -18574,7 +18598,7 @@
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>1427</v>
+        <v>1397</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
@@ -18582,7 +18606,7 @@
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -19200,39 +19224,47 @@
         <v>43</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="30">
+        <v>100</v>
+      </c>
+      <c r="F18" s="30">
+        <v>150</v>
+      </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20">
+        <v>30</v>
+      </c>
       <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20">
+        <v>13</v>
+      </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11596</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96.25</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11499.75</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -19661,11 +19693,11 @@
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="6">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="6"/>
@@ -19677,7 +19709,7 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="6"/>
@@ -19685,7 +19717,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="6"/>
@@ -19693,15 +19725,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11596</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>96.25</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -19713,15 +19745,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11499.75</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19736,11 +19768,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -19752,7 +19784,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -19760,7 +19792,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -20108,11 +20140,11 @@
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -20124,7 +20156,7 @@
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
@@ -20132,7 +20164,7 @@
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -21286,11 +21318,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -21302,7 +21334,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -21310,7 +21342,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -21658,11 +21690,11 @@
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -21674,7 +21706,7 @@
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
@@ -21682,7 +21714,7 @@
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -22836,11 +22868,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -22852,7 +22884,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -22860,7 +22892,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -23208,11 +23240,11 @@
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -23224,7 +23256,7 @@
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
@@ -23232,7 +23264,7 @@
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -24386,11 +24418,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -24402,7 +24434,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -24410,7 +24442,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -24758,11 +24790,11 @@
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -24774,7 +24806,7 @@
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
@@ -24782,7 +24814,7 @@
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -25936,11 +25968,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -25952,7 +25984,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -25960,7 +25992,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -26308,11 +26340,11 @@
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -26324,7 +26356,7 @@
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
@@ -26332,7 +26364,7 @@
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -27486,11 +27518,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -27502,7 +27534,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -27510,7 +27542,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -27858,11 +27890,11 @@
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -27874,7 +27906,7 @@
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
@@ -27882,7 +27914,7 @@
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -29036,11 +29068,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -29052,7 +29084,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -29060,7 +29092,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -29408,11 +29440,11 @@
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -29424,7 +29456,7 @@
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
@@ -29432,7 +29464,7 @@
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -30586,11 +30618,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -30602,7 +30634,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -30610,7 +30642,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -32638,11 +32670,11 @@
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -32654,7 +32686,7 @@
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
@@ -32662,7 +32694,7 @@
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -33816,11 +33848,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -33832,7 +33864,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -33840,7 +33872,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -34188,11 +34220,11 @@
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -34204,7 +34236,7 @@
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
@@ -34212,7 +34244,7 @@
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -35366,11 +35398,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -35382,7 +35414,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -35390,7 +35422,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -35738,11 +35770,11 @@
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -35754,7 +35786,7 @@
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
@@ -35762,7 +35794,7 @@
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36916,11 +36948,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -36932,7 +36964,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -36940,7 +36972,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -37288,11 +37320,11 @@
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -37304,7 +37336,7 @@
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
@@ -37312,7 +37344,7 @@
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -38466,11 +38498,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -38482,7 +38514,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -38490,7 +38522,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -38838,11 +38870,11 @@
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -38854,7 +38886,7 @@
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
@@ -38862,7 +38894,7 @@
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -40016,11 +40048,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -40032,7 +40064,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -40040,7 +40072,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -40388,11 +40420,11 @@
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -40404,7 +40436,7 @@
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
@@ -40412,7 +40444,7 @@
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -41566,11 +41598,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -41582,7 +41614,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -41590,7 +41622,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -41938,11 +41970,11 @@
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -41954,7 +41986,7 @@
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
@@ -41962,7 +41994,7 @@
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -43116,11 +43148,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -43132,7 +43164,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -43140,7 +43172,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -43488,11 +43520,11 @@
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -43504,7 +43536,7 @@
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
@@ -43512,7 +43544,7 @@
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -44666,11 +44698,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -44682,7 +44714,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -44690,7 +44722,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -45038,11 +45070,11 @@
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -45054,7 +45086,7 @@
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
@@ -45062,7 +45094,7 @@
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -46216,11 +46248,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -46232,7 +46264,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -46240,7 +46272,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -46588,11 +46620,11 @@
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -46604,7 +46636,7 @@
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
@@ -46612,7 +46644,7 @@
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -47766,11 +47798,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -47782,7 +47814,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -47790,7 +47822,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -49688,11 +49720,11 @@
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -49704,7 +49736,7 @@
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
@@ -49712,7 +49744,7 @@
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50866,11 +50898,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -50882,7 +50914,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -50890,7 +50922,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -51238,11 +51270,11 @@
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -51254,7 +51286,7 @@
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
@@ -51262,7 +51294,7 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -52416,11 +52448,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -52432,7 +52464,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -52440,7 +52472,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -53790,11 +53822,11 @@
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" s="21">
         <f>'1'!F18+'2'!F18+'3'!F18+'4'!F18+'5'!F18+'6'!F18+'7'!F18+'8'!F18+'9'!F18+'10'!F18+'11'!F18+'12'!F18+'13'!F18+'14'!F18+'15'!F18+'16'!F18+'17'!F18+'18'!F18+'19'!F18+'20'!F18+'21'!F18+'22'!F18+'23'!F18+'24'!F18+'25'!F18+'26'!F18+'27'!F18+'28'!F18+'29'!F18+'30'!F18+'31'!F18</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G18" s="21">
         <f>'1'!G18+'2'!G18+'3'!G18+'4'!G18+'5'!G18+'6'!G18+'7'!G18+'8'!G18+'9'!G18+'10'!G18+'11'!G18+'12'!G18+'13'!G18+'14'!G18+'15'!G18+'16'!G18+'17'!G18+'18'!G18+'19'!G18+'20'!G18+'21'!G18+'22'!G18+'23'!G18+'24'!G18+'25'!G18+'26'!G18+'27'!G18+'28'!G18+'29'!G18+'30'!G18+'31'!G18</f>
@@ -53806,7 +53838,7 @@
       </c>
       <c r="I18" s="21">
         <f>'1'!I18+'2'!I18+'3'!I18+'4'!I18+'5'!I18+'6'!I18+'7'!I18+'8'!I18+'9'!I18+'10'!I18+'11'!I18+'12'!I18+'13'!I18+'14'!I18+'15'!I18+'16'!I18+'17'!I18+'18'!I18+'19'!I18+'20'!I18+'21'!I18+'22'!I18+'23'!I18+'24'!I18+'25'!I18+'26'!I18+'27'!I18+'28'!I18+'29'!I18+'30'!I18+'31'!I18</f>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J18" s="21">
         <f>'1'!J18+'2'!J18+'3'!J18+'4'!J18+'5'!J18+'6'!J18+'7'!J18+'8'!J18+'9'!J18+'10'!J18+'11'!J18+'12'!J18+'13'!J18+'14'!J18+'15'!J18+'16'!J18+'17'!J18+'18'!J18+'19'!J18+'20'!J18+'21'!J18+'22'!J18+'23'!J18+'24'!J18+'25'!J18+'26'!J18+'27'!J18+'28'!J18+'29'!J18+'30'!J18+'31'!J18</f>
@@ -53814,7 +53846,7 @@
       </c>
       <c r="K18" s="21">
         <f>'1'!K18+'2'!K18+'3'!K18+'4'!K18+'5'!K18+'6'!K18+'7'!K18+'8'!K18+'9'!K18+'10'!K18+'11'!K18+'12'!K18+'13'!K18+'14'!K18+'15'!K18+'16'!K18+'17'!K18+'18'!K18+'19'!K18+'20'!K18+'21'!K18+'22'!K18+'23'!K18+'24'!K18+'25'!K18+'26'!K18+'27'!K18+'28'!K18+'29'!K18+'30'!K18+'31'!K18</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L18" s="21">
         <f>'1'!L18+'2'!L18+'3'!L18+'4'!L18+'5'!L18+'6'!L18+'7'!L18+'8'!L18+'9'!L18+'10'!L18+'11'!L18+'12'!L18+'13'!L18+'14'!L18+'15'!L18+'16'!L18+'17'!L18+'18'!L18+'19'!L18+'20'!L18+'21'!L18+'22'!L18+'23'!L18+'24'!L18+'25'!L18+'26'!L18+'27'!L18+'28'!L18+'29'!L18+'30'!L18+'31'!L18</f>
@@ -53822,15 +53854,15 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>80561</v>
+        <v>87561</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>84381</v>
+        <v>107573</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>2215.4275000000002</v>
+        <v>2407.9275000000002</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -53839,15 +53871,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>80813.572499999995</v>
+        <v>103813.07249999999</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>765.32949999999994</v>
+        <v>831.82949999999994</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-586.67050000000006</v>
+        <v>-520.17050000000006</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54546,11 +54578,11 @@
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
-        <v>1760</v>
+        <v>1960</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="6">SUM(F7:F27)</f>
-        <v>2790</v>
+        <v>3090</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="6"/>
@@ -54562,7 +54594,7 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
-        <v>704</v>
+        <v>764</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="6"/>
@@ -54570,7 +54602,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="6"/>
@@ -54578,15 +54610,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>2100519</v>
+        <v>2107519</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>2283645</v>
+        <v>2306837</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>57764.272500000006</v>
+        <v>57956.772500000006</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -54598,15 +54630,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>2208749.7275</v>
+        <v>2231749.2275</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>19954.930499999999</v>
+        <v>20021.430499999999</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>2823.9304999999995</v>
+        <v>2890.4304999999995</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54621,11 +54653,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -54637,7 +54669,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1427</v>
+        <v>1367</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -54645,7 +54677,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -61830,7 +61862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63560,9 +63592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64389,25 +64421,33 @@
       <c r="D18" s="29">
         <v>11000</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="30">
+        <v>100</v>
+      </c>
+      <c r="F18" s="30">
+        <v>150</v>
+      </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20">
+        <v>30</v>
+      </c>
       <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20">
+        <v>13</v>
+      </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>22596</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>302.5</v>
+        <v>398.75</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -64415,15 +64455,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>10600.5</v>
+        <v>22100.25</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>104.5</v>
+        <v>137.75</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -64931,11 +64971,11 @@
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="6">SUM(F7:F27)</f>
-        <v>770</v>
+        <v>920</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="6"/>
@@ -64947,7 +64987,7 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="6"/>
@@ -64955,7 +64995,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="6"/>
@@ -64963,15 +65003,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>305852</v>
+        <v>309352</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>328064</v>
+        <v>339660</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>8410.93</v>
+        <v>8507.18</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -64983,15 +65023,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>317896.06999999995</v>
+        <v>329395.81999999995</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>2905.5939999999996</v>
+        <v>2938.8439999999996</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>1148.5939999999998</v>
+        <v>1181.8439999999998</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -65006,11 +65046,11 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
-        <v>2830</v>
+        <v>2730</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>7850</v>
+        <v>7700</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -65022,7 +65062,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
@@ -65030,7 +65070,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
